--- a/biology/Histoire de la zoologie et de la botanique/Edward_Drinker_Cope/Edward_Drinker_Cope.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Drinker_Cope/Edward_Drinker_Cope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Drinker Cope, né le 28 juillet 1840 à Philadelphie où il est mort le 12 avril 1897, est un paléontologue et un anatomiste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille quaker, il s'intéresse dès son jeune âge à l'histoire naturelle. Ainsi, il visite, à l'âge de six ans, le Muséum d'histoire naturelle de Philadelphie, qui le marque durablement.
 Il présente à dix-huit ans un article sur les Salamandridae à l'Academy of Natural Sciences de Philadelphie où il décrit deux nouvelles espèces et propose des modifications dans la classification de cette famille.
@@ -548,7 +562,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un militant actif du néolamarckisme et publie sur le sujet de nombreux articles. Il reçoit de nombreux honneurs durant sa vie : il est élu à l'Académie des sciences des États-Unis en 1873 et obtient la présidence de la plus importante société savante du pays, l'American Association for the Advancement of Science en 1896.
 Il est l'auteur de plus de 1 000 nouvelles espèces et plus de 500 genres, la plupart concernant des vertébrés fossiles. Parmi ceux-ci, figurent certains des plus anciens mammifères connus qu'il a découverts dans le Nouveau-Mexique et 56 espèces de dinosaures, dont le Camarasaurus et le Coelophysis. Auteur prolifique, il a fait paraître près de 1 400 articles scientifiques ainsi que de nombreux livres.
@@ -581,11 +597,13 @@
           <t>Positions racistes et misogynes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines positions d'Edward Cope sont aujourd'hui considérée comme racistes et misogynes[1].
-Partisan de la hiérarchie des races, il défend la supériorité des Indo-Européens, et la proximité des races non-blanches avec les singes. Bien qu'issu d'une famille de Quakers, opposés à l'esclavage, il considère que les noirs ont des « vices dégradants », et que ces « nègres inférieurs doivent retourner en Afrique »[2].
-Cope était aussi opposé à l'émancipation des femmes, et notamment à leur accorder le droit de vote car trop influençables selon lui[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines positions d'Edward Cope sont aujourd'hui considérée comme racistes et misogynes.
+Partisan de la hiérarchie des races, il défend la supériorité des Indo-Européens, et la proximité des races non-blanches avec les singes. Bien qu'issu d'une famille de Quakers, opposés à l'esclavage, il considère que les noirs ont des « vices dégradants », et que ces « nègres inférieurs doivent retourner en Afrique ».
+Cope était aussi opposé à l'émancipation des femmes, et notamment à leur accorder le droit de vote car trop influençables selon lui.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Hommages et critiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1913, le scientifique américain John Treadwell Nichols crée Copeia, la revue officielle d'ichtyologie et d'herpétologie, et dont le nom fait référence à Edward Cope. En 2021, à la demande de membres de la Société américaine des ichtyologistes et des herpétologistes[3], la revue Copeia est renommée Ichthyology &amp; Herpetology, afin de ne plus rendre hommage à Edward Cope, critiqué pour ses positions racistes et misogynes[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1913, le scientifique américain John Treadwell Nichols crée Copeia, la revue officielle d'ichtyologie et d'herpétologie, et dont le nom fait référence à Edward Cope. En 2021, à la demande de membres de la Société américaine des ichtyologistes et des herpétologistes, la revue Copeia est renommée Ichthyology &amp; Herpetology, afin de ne plus rendre hommage à Edward Cope, critiqué pour ses positions racistes et misogynes.
 </t>
         </is>
       </c>
@@ -645,7 +665,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il s'agit d'une liste partielle.
 On the method of creation of organic types. M'Calla &amp; Stavely, Philadelphia 1871.
